--- a/default-files/excel/Main/Localization/DONE-english/done-R人物列表_Roles_Fighters_hotfix.xlsx
+++ b/default-files/excel/Main/Localization/DONE-english/done-R人物列表_Roles_Fighters_hotfix.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="f:\Users\isyuricunha\Documents\GitHub\sands-of-salzaar-game-translation\default-files\excel\Main\Localization\DONE-english\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{141393FD-4D2D-4201-BD38-4DFBEB195C11}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{88C6D60B-82C0-4015-9A76-6FD0E8C04D3B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11760" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -828,8 +828,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G45"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A36" workbookViewId="0">
-      <selection activeCell="G37" sqref="G37"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection sqref="A1:XFD1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
